--- a/experiments/appliances+energy+prediction/energydata_complete.csv/0.95appliances+energy+prediction/RMSE-appliances+energy+prediction_0.95_iters_staticpr=10000.xlsx
+++ b/experiments/appliances+energy+prediction/energydata_complete.csv/0.95appliances+energy+prediction/RMSE-appliances+energy+prediction_0.95_iters_staticpr=10000.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>second-order similarities</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>no feature selection</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,13 +484,16 @@
         <v>0.6009744091965763</v>
       </c>
       <c r="E2" t="n">
-        <v>1.354195956826622</v>
+        <v>0.815542014693261</v>
       </c>
       <c r="F2" t="n">
         <v>0.899280663535858</v>
       </c>
       <c r="G2" t="n">
         <v>0.6757869024228286</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.569204021218028</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +510,16 @@
         <v>0.6321875144806207</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8165061927061286</v>
+        <v>0.8522198772469911</v>
       </c>
       <c r="F3" t="n">
         <v>0.5994109362315284</v>
       </c>
       <c r="G3" t="n">
         <v>0.7052217383146323</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.171861802794187</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +536,16 @@
         <v>0.4964268747841727</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5797845406502379</v>
+        <v>0.6334741076918542</v>
       </c>
       <c r="F4" t="n">
         <v>0.5374718519981336</v>
       </c>
       <c r="G4" t="n">
         <v>0.618224040228509</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5652875509076045</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +562,16 @@
         <v>1.261181600806262</v>
       </c>
       <c r="E5" t="n">
-        <v>2.046336299300893</v>
+        <v>2.028294986318685</v>
       </c>
       <c r="F5" t="n">
         <v>0.5739126659992755</v>
       </c>
       <c r="G5" t="n">
         <v>0.6878358384559545</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.746309285685705</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +588,16 @@
         <v>0.8154559769504074</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7637199207856079</v>
+        <v>0.7944581748053672</v>
       </c>
       <c r="F6" t="n">
         <v>1.233367592067558</v>
       </c>
       <c r="G6" t="n">
         <v>0.788221396568801</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.7602776786306961</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +614,16 @@
         <v>0.9511104017632419</v>
       </c>
       <c r="E7" t="n">
-        <v>0.976252231115088</v>
+        <v>0.7040292382315327</v>
       </c>
       <c r="F7" t="n">
         <v>0.6946811220910155</v>
       </c>
       <c r="G7" t="n">
         <v>1.178838908867424</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.581443283984069</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +640,16 @@
         <v>0.7238403847706226</v>
       </c>
       <c r="E8" t="n">
-        <v>1.045531392470041</v>
+        <v>0.7059764092768163</v>
       </c>
       <c r="F8" t="n">
         <v>0.7303003204617621</v>
       </c>
       <c r="G8" t="n">
         <v>0.6871977272479063</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.07997200171214</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +666,16 @@
         <v>0.6575975680361025</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7987416361072154</v>
+        <v>0.7195573212549861</v>
       </c>
       <c r="F9" t="n">
         <v>0.7294990828513196</v>
       </c>
       <c r="G9" t="n">
         <v>0.6980648221390268</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.6939007964158922</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +692,16 @@
         <v>0.9941204600214905</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9482954523810875</v>
+        <v>1.255659400294832</v>
       </c>
       <c r="F10" t="n">
         <v>0.3387186659198656</v>
       </c>
       <c r="G10" t="n">
         <v>0.3945003447156461</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8356507055403981</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +718,16 @@
         <v>0.6577413485037655</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6400589860802879</v>
+        <v>0.678966411683591</v>
       </c>
       <c r="F11" t="n">
         <v>0.6286871509727361</v>
       </c>
       <c r="G11" t="n">
         <v>0.695794115307384</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.6957055817793031</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +744,16 @@
         <v>0.6874241512650962</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7592672269659047</v>
+        <v>0.7232506841351495</v>
       </c>
       <c r="F12" t="n">
         <v>0.7423334494865302</v>
       </c>
       <c r="G12" t="n">
         <v>0.7577193961934537</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.7901127264767611</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +770,16 @@
         <v>0.8328489885170557</v>
       </c>
       <c r="E13" t="n">
-        <v>1.265005524938246</v>
+        <v>1.147641226537522</v>
       </c>
       <c r="F13" t="n">
         <v>0.7542966487903758</v>
       </c>
       <c r="G13" t="n">
         <v>0.7778142442026017</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.876105707819372</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +796,16 @@
         <v>0.6768156346966498</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6667486739539646</v>
+        <v>0.6693463542706971</v>
       </c>
       <c r="F14" t="n">
         <v>0.7010410708958902</v>
       </c>
       <c r="G14" t="n">
         <v>0.6288365292503961</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.7462021723596667</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +822,16 @@
         <v>0.7577205619929507</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6784479778580356</v>
+        <v>0.7510627766373037</v>
       </c>
       <c r="F15" t="n">
         <v>0.6675990201578966</v>
       </c>
       <c r="G15" t="n">
         <v>0.6263608703564286</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.138358848386039</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +848,16 @@
         <v>0.9345793203978116</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4399900864754931</v>
+        <v>0.8235034645171088</v>
       </c>
       <c r="F16" t="n">
         <v>0.6168800277958781</v>
       </c>
       <c r="G16" t="n">
         <v>0.3818626971958645</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.45503512207857</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +874,16 @@
         <v>0.97539122464318</v>
       </c>
       <c r="E17" t="n">
-        <v>2.735527596211286</v>
+        <v>0.9161144683689449</v>
       </c>
       <c r="F17" t="n">
         <v>0.675440392136413</v>
       </c>
       <c r="G17" t="n">
         <v>0.7366627326964752</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.270272056544867</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +900,16 @@
         <v>0.6885918989524674</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6483688664380381</v>
+        <v>0.6653030291910214</v>
       </c>
       <c r="F18" t="n">
         <v>0.6895096634195331</v>
       </c>
       <c r="G18" t="n">
         <v>0.9570907918326231</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.6875736065680886</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +926,16 @@
         <v>1.284016562718516</v>
       </c>
       <c r="E19" t="n">
-        <v>1.313276388531011</v>
+        <v>1.033260766736797</v>
       </c>
       <c r="F19" t="n">
         <v>0.6003254579099584</v>
       </c>
       <c r="G19" t="n">
         <v>0.7190192050864183</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.371463797183841</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +952,16 @@
         <v>0.5154337149359858</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8982455737989844</v>
+        <v>0.5804461382966445</v>
       </c>
       <c r="F20" t="n">
         <v>0.5986048052449005</v>
       </c>
       <c r="G20" t="n">
         <v>0.5542305399743168</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.716054096151871</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +978,16 @@
         <v>0.4108245915183084</v>
       </c>
       <c r="E21" t="n">
-        <v>0.584857840890914</v>
+        <v>0.3586727288997735</v>
       </c>
       <c r="F21" t="n">
         <v>0.3054668600749495</v>
       </c>
       <c r="G21" t="n">
         <v>0.3003888402914573</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.3575521379709787</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +1004,16 @@
         <v>1.643966984015982</v>
       </c>
       <c r="E22" t="n">
-        <v>1.375851856596411</v>
+        <v>0.9852315876875359</v>
       </c>
       <c r="F22" t="n">
         <v>0.6005575236711498</v>
       </c>
       <c r="G22" t="n">
         <v>0.6186696858677236</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.491810134982529</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +1030,16 @@
         <v>0.5462730199764071</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5698161520564516</v>
+        <v>0.7110348335007896</v>
       </c>
       <c r="F23" t="n">
         <v>0.4047959458392323</v>
       </c>
       <c r="G23" t="n">
         <v>0.401221626274771</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.7164994166664964</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +1056,16 @@
         <v>0.7876082786091985</v>
       </c>
       <c r="E24" t="n">
-        <v>1.067852573061356</v>
+        <v>0.8392014102330604</v>
       </c>
       <c r="F24" t="n">
         <v>0.7557529303129971</v>
       </c>
       <c r="G24" t="n">
         <v>0.8032979675850831</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8264286715881636</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1082,16 @@
         <v>1.479590355934819</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7179642851271083</v>
+        <v>0.5614857305755989</v>
       </c>
       <c r="F25" t="n">
         <v>0.8104252655450903</v>
       </c>
       <c r="G25" t="n">
         <v>0.6232042041831818</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.093275853694261</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1108,16 @@
         <v>0.5633573504596392</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6074863681116348</v>
+        <v>0.596579592253795</v>
       </c>
       <c r="F26" t="n">
         <v>0.550844968093319</v>
       </c>
       <c r="G26" t="n">
         <v>0.7308138634858188</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.683047034621508</v>
       </c>
     </row>
     <row r="27">
@@ -1051,16 +1131,19 @@
         <v>0.7097045063745935</v>
       </c>
       <c r="D27" t="n">
-        <v>1.044454455309523</v>
+        <v>0.9004233127469645</v>
       </c>
       <c r="E27" t="n">
-        <v>1.121663977587784</v>
+        <v>0.6836118769842755</v>
       </c>
       <c r="F27" t="n">
         <v>0.6809357999851086</v>
       </c>
       <c r="G27" t="n">
         <v>0.732530463537277</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.7246973021195265</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1160,16 @@
         <v>0.6063383992411364</v>
       </c>
       <c r="E28" t="n">
-        <v>1.873955059045717</v>
+        <v>1.678373135105066</v>
       </c>
       <c r="F28" t="n">
         <v>0.6746576140603608</v>
       </c>
       <c r="G28" t="n">
         <v>0.723787773446354</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.766625181919632</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1186,16 @@
         <v>0.6172777507553898</v>
       </c>
       <c r="E29" t="n">
-        <v>2.19761688603662</v>
+        <v>0.5858740896576644</v>
       </c>
       <c r="F29" t="n">
         <v>0.5754443593088236</v>
       </c>
       <c r="G29" t="n">
         <v>0.4416826328766913</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.446852362793699</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1212,16 @@
         <v>0.5727750337905919</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5672149899802669</v>
+        <v>0.6363863045034981</v>
       </c>
       <c r="F30" t="n">
         <v>0.5804009613394987</v>
       </c>
       <c r="G30" t="n">
         <v>0.6405782087902426</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.6379964573770132</v>
       </c>
     </row>
     <row r="31">
@@ -1143,16 +1235,19 @@
         <v>1.144193744721784</v>
       </c>
       <c r="D31" t="n">
-        <v>1.00508140172435</v>
+        <v>0.785347883495061</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5576749575819386</v>
+        <v>0.556092798968954</v>
       </c>
       <c r="F31" t="n">
         <v>0.5690879137575625</v>
       </c>
       <c r="G31" t="n">
         <v>0.6237738464600889</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.4501796806230501</v>
       </c>
     </row>
     <row r="32">
@@ -1166,16 +1261,19 @@
         <v>0.7235829576916797</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6328251212298143</v>
+        <v>0.5748670079605527</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7164074444886172</v>
+        <v>0.5499206459592627</v>
       </c>
       <c r="F32" t="n">
         <v>0.5687141753488705</v>
       </c>
       <c r="G32" t="n">
         <v>0.6747377774075806</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6442628104685902</v>
       </c>
     </row>
     <row r="33">
@@ -1189,16 +1287,19 @@
         <v>0.8814534694485827</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6444355066032307</v>
+        <v>0.5756040368016589</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7025226556949498</v>
+        <v>0.6780830073856222</v>
       </c>
       <c r="F33" t="n">
         <v>0.6064219821181551</v>
       </c>
       <c r="G33" t="n">
         <v>0.6811370518310434</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.6382929500692391</v>
       </c>
     </row>
     <row r="34">
@@ -1214,16 +1315,19 @@
         <v>0.2201920566363188</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08416892314518092</v>
+        <v>0.08264848904068303</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2923795593963432</v>
+        <v>0.109531123533129</v>
       </c>
       <c r="F34" t="n">
         <v>0.02648441131190537</v>
       </c>
       <c r="G34" t="n">
         <v>0.0277321523971279</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.2338050053615122</v>
       </c>
     </row>
     <row r="35">
@@ -1233,22 +1337,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9508050991364261</v>
+        <v>0.9709626521631655</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9171421505758335</v>
+        <v>0.9389218410114434</v>
       </c>
       <c r="D35" t="n">
-        <v>0.781285932416562</v>
+        <v>0.7877410188355838</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9796231857348572</v>
+        <v>0.809957955997</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6279197363252561</v>
+        <v>0.6467145902319233</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6452375434997313</v>
+        <v>0.6645345869716877</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.007134713660368</v>
       </c>
     </row>
     <row r="36">
@@ -1258,22 +1365,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3057634022807662</v>
+        <v>0.443258590849998</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2201920566363188</v>
+        <v>0.3759838935683892</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08416892314518092</v>
+        <v>0.4108245915183084</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2923795593963432</v>
+        <v>0.3586727288997735</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02648441131190537</v>
+        <v>0.3054668600749495</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0277321523971279</v>
+        <v>0.3003888402914573</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.3575521379709787</v>
       </c>
     </row>
     <row r="37">
@@ -1292,13 +1402,16 @@
         <v>1.643966984015982</v>
       </c>
       <c r="E37" t="n">
-        <v>2.735527596211286</v>
+        <v>2.028294986318685</v>
       </c>
       <c r="F37" t="n">
         <v>1.233367592067558</v>
       </c>
       <c r="G37" t="n">
         <v>1.178838908867424</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.171861802794187</v>
       </c>
     </row>
   </sheetData>
